--- a/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings years.xlsx
@@ -338,7 +338,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:40:59</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:47:39</t>
   </si>
 </sst>
 </file>
@@ -8974,7 +8974,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:41:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:47:44&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings years.xlsx
@@ -338,7 +338,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:47:39</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:37:51</t>
   </si>
 </sst>
 </file>
@@ -8974,7 +8974,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:47:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:37:56&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>